--- a/target/classes/data/Totalcases.xlsx
+++ b/target/classes/data/Totalcases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gopi Srinivas Putta\Desktop\Keywords\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gopi Srinivas Putta\eclipse-workspace\prototype\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF6DDB4-E5B5-4834-9363-FE458F5DEC98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0CC425-FA81-498E-BC01-CC889FDEDA7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>testcase5</t>
+  </si>
+  <si>
+    <t>testcase</t>
+  </si>
+  <si>
+    <t>testcase7</t>
   </si>
 </sst>
 </file>
@@ -369,9 +375,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -396,7 +404,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -412,7 +420,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -421,6 +429,22 @@
       </c>
       <c r="B6" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/data/Totalcases.xlsx
+++ b/target/classes/data/Totalcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gopi Srinivas Putta\eclipse-workspace\prototype\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0CC425-FA81-498E-BC01-CC889FDEDA7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B803A9-8F71-4009-BD08-8BD01561A7E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
